--- a/work_of_emotions/計算用.xlsx
+++ b/work_of_emotions/計算用.xlsx
@@ -1,38 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashidaatsushi/Dropbox/小尻研究室/JS/SalesioViewer/work_of_emotions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEBFB31-8C47-9645-902F-B1EFDC393B85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6278AA3-69E1-5C41-A702-E3C375D8E4E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
-    <sheet name="エラーバー付平均順位グラフ" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="11" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId7"/>
-    <sheet name="被験者間の相関" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId9"/>
-    <sheet name="テューキークレーマーの検定結果" sheetId="8" r:id="rId10"/>
-    <sheet name="多重比較" sheetId="9" r:id="rId11"/>
+    <sheet name="英文用" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="エラーバー付平均順位グラフ" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId8"/>
+    <sheet name="被験者間の相関" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId10"/>
+    <sheet name="テューキークレーマーの検定結果" sheetId="8" r:id="rId11"/>
+    <sheet name="多重比較" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">output!$Z$33:$AA$64</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">エラーバー付平均順位グラフ!$B$1:$AG$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">多重比較!$A$1:$C$497</definedName>
-    <definedName name="名称未設定" localSheetId="8">Sheet5!$O$2:$O$1048576</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">エラーバー付平均順位グラフ!$B$1:$AG$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">多重比較!$A$1:$C$497</definedName>
+    <definedName name="名称未設定" localSheetId="9">Sheet5!$O$2:$O$1048576</definedName>
     <definedName name="名称未設定_1" localSheetId="0">output!$AK$33:$AL$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -56,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="689">
   <si>
     <t>のん.csv</t>
   </si>
@@ -2082,12 +2091,261 @@
   <si>
     <t>31:32</t>
   </si>
+  <si>
+    <t>Emotions and opposites</t>
+  </si>
+  <si>
+    <t>Mild emotion</t>
+  </si>
+  <si>
+    <t>Mild opposite</t>
+  </si>
+  <si>
+    <t>Basic emotion</t>
+  </si>
+  <si>
+    <t>Basic opposite</t>
+  </si>
+  <si>
+    <t>Intense emotion</t>
+  </si>
+  <si>
+    <t>Intense opposite</t>
+  </si>
+  <si>
+    <t>Serenity</t>
+  </si>
+  <si>
+    <t>Pensiveness</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Sadness</t>
+  </si>
+  <si>
+    <t>Ecstasy</t>
+  </si>
+  <si>
+    <t>Grief</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>Boredom</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Disgust</t>
+  </si>
+  <si>
+    <t>Admiration</t>
+  </si>
+  <si>
+    <t>Loathing</t>
+  </si>
+  <si>
+    <t>Apprehension</t>
+  </si>
+  <si>
+    <t>Annoyance</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>Terror</t>
+  </si>
+  <si>
+    <t>Rage</t>
+  </si>
+  <si>
+    <t>Distraction</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Anticipation</t>
+  </si>
+  <si>
+    <t>Amazement</t>
+  </si>
+  <si>
+    <t>Vigilance</t>
+  </si>
+  <si>
+    <t>Dyads (Combinations)</t>
+  </si>
+  <si>
+    <t>Human feelings</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>Opposite feelings</t>
+  </si>
+  <si>
+    <t>Optimism</t>
+  </si>
+  <si>
+    <t>Anticipation + Joy</t>
+  </si>
+  <si>
+    <t>Disapproval</t>
+  </si>
+  <si>
+    <t>Surprise + Sadness</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Anticipation + Trust</t>
+  </si>
+  <si>
+    <t>Unbelief</t>
+  </si>
+  <si>
+    <t>Surprise + Disgust</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Anticipation + Fear</t>
+  </si>
+  <si>
+    <t>Outrage</t>
+  </si>
+  <si>
+    <t>Surprise + Anger</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Joy + Trust</t>
+  </si>
+  <si>
+    <t>Remorse</t>
+  </si>
+  <si>
+    <t>Sadness + Disgust</t>
+  </si>
+  <si>
+    <t>Guilt</t>
+  </si>
+  <si>
+    <t>Joy + Fear</t>
+  </si>
+  <si>
+    <t>Envy</t>
+  </si>
+  <si>
+    <t>Sadness + Anger</t>
+  </si>
+  <si>
+    <t>Delight</t>
+  </si>
+  <si>
+    <t>Joy + Surprise</t>
+  </si>
+  <si>
+    <t>Pessimism</t>
+  </si>
+  <si>
+    <t>Sadness + Anticipation</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Trust + Fear</t>
+  </si>
+  <si>
+    <t>Contempt</t>
+  </si>
+  <si>
+    <t>Disgust + Anger</t>
+  </si>
+  <si>
+    <t>Curiosity</t>
+  </si>
+  <si>
+    <t>Trust + Surprise</t>
+  </si>
+  <si>
+    <t>Cynicism</t>
+  </si>
+  <si>
+    <t>Disgust + Anticipation</t>
+  </si>
+  <si>
+    <t>Sentimentality</t>
+  </si>
+  <si>
+    <t>Trust + Sadness</t>
+  </si>
+  <si>
+    <t>Morbidness</t>
+  </si>
+  <si>
+    <t>Disgust + Joy</t>
+  </si>
+  <si>
+    <t>Awe</t>
+  </si>
+  <si>
+    <t>Fear + Surprise</t>
+  </si>
+  <si>
+    <t>Aggressiveness</t>
+  </si>
+  <si>
+    <t>Anger + Anticipation</t>
+  </si>
+  <si>
+    <t>Despair</t>
+  </si>
+  <si>
+    <t>Fear + Sadness</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Anger + Joy</t>
+  </si>
+  <si>
+    <t>Shame</t>
+  </si>
+  <si>
+    <t>Fear + Disgust</t>
+  </si>
+  <si>
+    <t>Dominance</t>
+  </si>
+  <si>
+    <t>Anger + Trust</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2290,6 +2548,28 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2625,7 +2905,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2752,8 +3032,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2811,8 +3094,23 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2840,6 +3138,7 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -2870,6 +3169,670 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>英文用!$A$43:$AF$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="32"/>
+                  <c:pt idx="0">
+                    <c:v>0.97182531580755005</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.73786478737262173</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8067379246694513</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4152294576982398</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.024845673131658</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4181364924121773</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.8408935028645435</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.6465452046971285</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8737959096740269</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.6161889160464784</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.7511900715418269</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.4671641514002536</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.8488257455915145</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.0892813821284326</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.2739521132865628</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5.652924513520019</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.0290610982378166</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>7.7746025264604004</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7.130529043797833</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.5978388574871505</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4.7714428286071531</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4.9317565047579324</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5.2334394893691938</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5.1693541397569405</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>6.2795965900154203</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.8815804341359086</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>5.6969777562805701</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.3512450325548544</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4.0770359603788462</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.6200048100023103</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.7908580918579307</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.1552425509864621</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>英文用!$A$43:$AF$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="32"/>
+                  <c:pt idx="0">
+                    <c:v>0.97182531580755005</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.73786478737262173</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8067379246694513</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4152294576982398</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.024845673131658</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4181364924121773</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.8408935028645435</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.6465452046971285</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8737959096740269</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.6161889160464784</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.7511900715418269</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.4671641514002536</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.8488257455915145</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.0892813821284326</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.2739521132865628</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5.652924513520019</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.0290610982378166</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>7.7746025264604004</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7.130529043797833</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.5978388574871505</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4.7714428286071531</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4.9317565047579324</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5.2334394893691938</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5.1693541397569405</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>6.2795965900154203</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.8815804341359086</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>5.6969777562805701</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.3512450325548544</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4.0770359603788462</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.6200048100023103</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.7908580918579307</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.1552425509864621</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>英文用!$A$41:$AF$41</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Joy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Love</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delight</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Trust</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dominance</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Curiosity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anticipation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Optimism</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hope</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Pride</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Surprise</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sentimentality</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Anxiety</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Morbidness</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Cynicism</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Remorse</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Guilt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Submission</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Aggressiveness</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Contempt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Fear</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Anger</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Awe</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Pessimism</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Disapproval</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Disgust</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sadness</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Unbelief</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Shame</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Envy</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Outrage</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Despair</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>英文用!$A$42:$AF$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E6D-DB4B-A4DE-BA39DD448BEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="994614048"/>
+        <c:axId val="945293216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="994614048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945293216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="945293216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="994614048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3445,7 +4408,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3575,7 +4538,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4361,8 +5324,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4470,11 +5473,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4485,11 +5483,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4521,9 +5514,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5393,7 +6383,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>780585</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>184924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>588537</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2C60E8-A746-8F45-AC52-AA3B5C92638D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5786,7 +7333,7 @@
   <dimension ref="A1:AL89"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG1"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -11021,7 +12568,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState sortMethod="stroke" ref="G22:H53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" sortMethod="stroke" ref="G22:H53">
     <sortCondition ref="H22:H53"/>
   </sortState>
   <phoneticPr fontId="18"/>
@@ -11031,6 +12578,1177 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA00BD6-2105-45E4-9A24-D78A46701885}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>28</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>31</v>
+      </c>
+      <c r="K21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>29</v>
+      </c>
+      <c r="G26">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>26</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+      <c r="H27">
+        <v>29</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>24</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <v>19</v>
+      </c>
+      <c r="K28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>26</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>17</v>
+      </c>
+      <c r="K31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D7BC8C-BBD3-0B4E-8FE8-8D6E3A169F7E}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
@@ -14570,7 +17288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B6DB63-DA6D-FE4F-B47E-D2B4FBEACCA8}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C497"/>
@@ -20059,6 +22777,1289 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90076E1-1EB2-CC4A-97D7-08A2447C2744}">
+  <dimension ref="A2:AF43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I40" zoomScale="125" workbookViewId="0">
+      <selection activeCell="W67" sqref="W67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:32">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" t="s">
+        <v>634</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="L3" t="s">
+        <v>653</v>
+      </c>
+      <c r="M3" t="s">
+        <v>657</v>
+      </c>
+      <c r="N3" t="s">
+        <v>661</v>
+      </c>
+      <c r="O3" t="s">
+        <v>665</v>
+      </c>
+      <c r="P3" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>673</v>
+      </c>
+      <c r="R3" t="s">
+        <v>677</v>
+      </c>
+      <c r="S3" t="s">
+        <v>681</v>
+      </c>
+      <c r="T3" t="s">
+        <v>685</v>
+      </c>
+      <c r="U3" t="s">
+        <v>643</v>
+      </c>
+      <c r="V3" t="s">
+        <v>647</v>
+      </c>
+      <c r="W3" t="s">
+        <v>651</v>
+      </c>
+      <c r="X3" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>663</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>683</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>4.5</v>
+      </c>
+      <c r="C4">
+        <v>20.9</v>
+      </c>
+      <c r="D4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E4">
+        <v>24.3</v>
+      </c>
+      <c r="F4">
+        <v>24.2</v>
+      </c>
+      <c r="G4">
+        <v>21.1</v>
+      </c>
+      <c r="H4">
+        <v>6.5</v>
+      </c>
+      <c r="I4">
+        <v>7.6</v>
+      </c>
+      <c r="J4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K4">
+        <v>17.2</v>
+      </c>
+      <c r="L4">
+        <v>2.1</v>
+      </c>
+      <c r="M4">
+        <v>18.3</v>
+      </c>
+      <c r="N4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>6.3</v>
+      </c>
+      <c r="Q4">
+        <v>16.8</v>
+      </c>
+      <c r="R4">
+        <v>22.5</v>
+      </c>
+      <c r="S4">
+        <v>30.8</v>
+      </c>
+      <c r="T4">
+        <v>26.2</v>
+      </c>
+      <c r="U4">
+        <v>24.1</v>
+      </c>
+      <c r="V4">
+        <v>25.4</v>
+      </c>
+      <c r="W4">
+        <v>27.3</v>
+      </c>
+      <c r="X4">
+        <v>18.2</v>
+      </c>
+      <c r="Y4">
+        <v>26.7</v>
+      </c>
+      <c r="Z4">
+        <v>23.5</v>
+      </c>
+      <c r="AA4">
+        <v>20.5</v>
+      </c>
+      <c r="AB4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AC4">
+        <v>17.5</v>
+      </c>
+      <c r="AD4">
+        <v>19.8</v>
+      </c>
+      <c r="AE4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF4">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5">
+        <v>0.97182531580755005</v>
+      </c>
+      <c r="B5">
+        <v>2.4152294576982398</v>
+      </c>
+      <c r="C5">
+        <v>4.7714428286071531</v>
+      </c>
+      <c r="D5">
+        <v>1.7511900715418269</v>
+      </c>
+      <c r="E5">
+        <v>5.6969777562805701</v>
+      </c>
+      <c r="F5">
+        <v>3.8815804341359086</v>
+      </c>
+      <c r="G5">
+        <v>4.9317565047579324</v>
+      </c>
+      <c r="H5">
+        <v>1.8408935028645435</v>
+      </c>
+      <c r="I5">
+        <v>1.6465452046971285</v>
+      </c>
+      <c r="J5">
+        <v>1.8737959096740269</v>
+      </c>
+      <c r="K5">
+        <v>4.8488257455915145</v>
+      </c>
+      <c r="L5">
+        <v>0.73786478737262173</v>
+      </c>
+      <c r="M5">
+        <v>4.0290610982378166</v>
+      </c>
+      <c r="N5">
+        <v>2.8067379246694513</v>
+      </c>
+      <c r="O5">
+        <v>7.7746025264604004</v>
+      </c>
+      <c r="P5">
+        <v>1.4181364924121773</v>
+      </c>
+      <c r="Q5">
+        <v>4.4671641514002536</v>
+      </c>
+      <c r="R5">
+        <v>5.2334394893691938</v>
+      </c>
+      <c r="S5">
+        <v>3.1552425509864621</v>
+      </c>
+      <c r="T5">
+        <v>4.0770359603788462</v>
+      </c>
+      <c r="U5">
+        <v>6.2795965900154203</v>
+      </c>
+      <c r="V5">
+        <v>4.3512450325548544</v>
+      </c>
+      <c r="W5">
+        <v>2.7908580918579307</v>
+      </c>
+      <c r="X5">
+        <v>5.652924513520019</v>
+      </c>
+      <c r="Y5">
+        <v>4.6200048100023103</v>
+      </c>
+      <c r="Z5">
+        <v>5.1693541397569405</v>
+      </c>
+      <c r="AA5">
+        <v>3.5978388574871505</v>
+      </c>
+      <c r="AB5">
+        <v>4.2739521132865628</v>
+      </c>
+      <c r="AC5">
+        <v>4.0892813821284326</v>
+      </c>
+      <c r="AD5">
+        <v>7.130529043797833</v>
+      </c>
+      <c r="AE5">
+        <v>2.6161889160464784</v>
+      </c>
+      <c r="AF5">
+        <v>2.024845673131658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F7" t="s">
+        <v>616</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="L7" t="s">
+        <v>653</v>
+      </c>
+      <c r="O7" t="s">
+        <v>665</v>
+      </c>
+      <c r="R7" t="s">
+        <v>677</v>
+      </c>
+      <c r="U7" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>667</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="F8" t="s">
+        <v>622</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="L8" t="s">
+        <v>657</v>
+      </c>
+      <c r="O8" t="s">
+        <v>669</v>
+      </c>
+      <c r="R8" t="s">
+        <v>681</v>
+      </c>
+      <c r="U8" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>671</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="F9" t="s">
+        <v>628</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="L9" t="s">
+        <v>661</v>
+      </c>
+      <c r="O9" t="s">
+        <v>673</v>
+      </c>
+      <c r="R9" t="s">
+        <v>685</v>
+      </c>
+      <c r="U9" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="F10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="V17" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="V18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="V19" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="L25" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="L26" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="L27" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="L28" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="L29" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="L30" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="O30" s="22" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="L31" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="O31" s="22" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="L32" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
+      <c r="L33" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
+      <c r="L34" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32">
+      <c r="L35" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="O35" s="22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s">
+        <v>37</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W40" t="s">
+        <v>28</v>
+      </c>
+      <c r="X40" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32">
+      <c r="A41" t="s">
+        <v>615</v>
+      </c>
+      <c r="B41" t="s">
+        <v>653</v>
+      </c>
+      <c r="C41" t="s">
+        <v>661</v>
+      </c>
+      <c r="D41" t="s">
+        <v>621</v>
+      </c>
+      <c r="E41" t="s">
+        <v>687</v>
+      </c>
+      <c r="F41" t="s">
+        <v>669</v>
+      </c>
+      <c r="G41" t="s">
+        <v>634</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="J41" t="s">
+        <v>683</v>
+      </c>
+      <c r="K41" t="s">
+        <v>633</v>
+      </c>
+      <c r="L41" t="s">
+        <v>673</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="N41" t="s">
+        <v>675</v>
+      </c>
+      <c r="O41" t="s">
+        <v>671</v>
+      </c>
+      <c r="P41" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>657</v>
+      </c>
+      <c r="R41" t="s">
+        <v>665</v>
+      </c>
+      <c r="S41" t="s">
+        <v>679</v>
+      </c>
+      <c r="T41" t="s">
+        <v>667</v>
+      </c>
+      <c r="U41" t="s">
+        <v>627</v>
+      </c>
+      <c r="V41" t="s">
+        <v>628</v>
+      </c>
+      <c r="W41" t="s">
+        <v>677</v>
+      </c>
+      <c r="X41" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>647</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>685</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32">
+      <c r="A42">
+        <v>1.5</v>
+      </c>
+      <c r="B42">
+        <v>2.1</v>
+      </c>
+      <c r="C42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D42">
+        <v>4.5</v>
+      </c>
+      <c r="E42">
+        <v>6.1</v>
+      </c>
+      <c r="F42">
+        <v>6.3</v>
+      </c>
+      <c r="G42">
+        <v>6.5</v>
+      </c>
+      <c r="H42">
+        <v>7.6</v>
+      </c>
+      <c r="I42">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J42">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K42">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L42">
+        <v>16.8</v>
+      </c>
+      <c r="M42">
+        <v>17.2</v>
+      </c>
+      <c r="N42">
+        <v>17.5</v>
+      </c>
+      <c r="O42">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P42">
+        <v>18.2</v>
+      </c>
+      <c r="Q42">
+        <v>18.3</v>
+      </c>
+      <c r="R42">
+        <v>19</v>
+      </c>
+      <c r="S42">
+        <v>19.8</v>
+      </c>
+      <c r="T42">
+        <v>20.5</v>
+      </c>
+      <c r="U42">
+        <v>20.9</v>
+      </c>
+      <c r="V42">
+        <v>21.1</v>
+      </c>
+      <c r="W42">
+        <v>22.5</v>
+      </c>
+      <c r="X42">
+        <v>23.5</v>
+      </c>
+      <c r="Y42">
+        <v>24.1</v>
+      </c>
+      <c r="Z42">
+        <v>24.2</v>
+      </c>
+      <c r="AA42">
+        <v>24.3</v>
+      </c>
+      <c r="AB42">
+        <v>25.4</v>
+      </c>
+      <c r="AC42">
+        <v>26.2</v>
+      </c>
+      <c r="AD42">
+        <v>26.7</v>
+      </c>
+      <c r="AE42">
+        <v>27.3</v>
+      </c>
+      <c r="AF42">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32">
+      <c r="A43">
+        <v>0.97182531580755005</v>
+      </c>
+      <c r="B43">
+        <v>0.73786478737262173</v>
+      </c>
+      <c r="C43">
+        <v>2.8067379246694513</v>
+      </c>
+      <c r="D43">
+        <v>2.4152294576982398</v>
+      </c>
+      <c r="E43">
+        <v>2.024845673131658</v>
+      </c>
+      <c r="F43">
+        <v>1.4181364924121773</v>
+      </c>
+      <c r="G43">
+        <v>1.8408935028645435</v>
+      </c>
+      <c r="H43">
+        <v>1.6465452046971285</v>
+      </c>
+      <c r="I43">
+        <v>1.8737959096740269</v>
+      </c>
+      <c r="J43">
+        <v>2.6161889160464784</v>
+      </c>
+      <c r="K43">
+        <v>1.7511900715418269</v>
+      </c>
+      <c r="L43">
+        <v>4.4671641514002536</v>
+      </c>
+      <c r="M43">
+        <v>4.8488257455915145</v>
+      </c>
+      <c r="N43">
+        <v>4.0892813821284326</v>
+      </c>
+      <c r="O43">
+        <v>4.2739521132865628</v>
+      </c>
+      <c r="P43">
+        <v>5.652924513520019</v>
+      </c>
+      <c r="Q43">
+        <v>4.0290610982378166</v>
+      </c>
+      <c r="R43">
+        <v>7.7746025264604004</v>
+      </c>
+      <c r="S43">
+        <v>7.130529043797833</v>
+      </c>
+      <c r="T43">
+        <v>3.5978388574871505</v>
+      </c>
+      <c r="U43">
+        <v>4.7714428286071531</v>
+      </c>
+      <c r="V43">
+        <v>4.9317565047579324</v>
+      </c>
+      <c r="W43">
+        <v>5.2334394893691938</v>
+      </c>
+      <c r="X43">
+        <v>5.1693541397569405</v>
+      </c>
+      <c r="Y43">
+        <v>6.2795965900154203</v>
+      </c>
+      <c r="Z43">
+        <v>3.8815804341359086</v>
+      </c>
+      <c r="AA43">
+        <v>5.6969777562805701</v>
+      </c>
+      <c r="AB43">
+        <v>4.3512450325548544</v>
+      </c>
+      <c r="AC43">
+        <v>4.0770359603788462</v>
+      </c>
+      <c r="AD43">
+        <v>4.6200048100023103</v>
+      </c>
+      <c r="AE43">
+        <v>2.7908580918579307</v>
+      </c>
+      <c r="AF43">
+        <v>3.1552425509864621</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A40:AF43">
+    <sortCondition ref="A42:AF42"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="L22:O22"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" tooltip="wiktionary:serenity" display="https://en.wiktionary.org/wiki/serenity" xr:uid="{49286C69-BE8F-B54B-A9B2-E477E28C95A4}"/>
+    <hyperlink ref="C21" r:id="rId2" tooltip="Melancholia" display="https://en.wikipedia.org/wiki/Melancholia" xr:uid="{594A1957-2656-FB41-8064-D73B5F641503}"/>
+    <hyperlink ref="D21" r:id="rId3" tooltip="Joy" display="https://en.wikipedia.org/wiki/Joy" xr:uid="{B7BE8F8F-A0AA-9E4C-8282-C31619D2235A}"/>
+    <hyperlink ref="E21" r:id="rId4" tooltip="Sadness" display="https://en.wikipedia.org/wiki/Sadness" xr:uid="{25B7231A-C25F-124F-B3C2-4525AC56C56E}"/>
+    <hyperlink ref="F21" r:id="rId5" tooltip="Ecstasy (emotion)" display="https://en.wikipedia.org/wiki/Ecstasy_(emotion)" xr:uid="{0BD925DF-4408-3E4A-B3EA-C4F9D11282D5}"/>
+    <hyperlink ref="G21" r:id="rId6" tooltip="Grief" display="https://en.wikipedia.org/wiki/Grief" xr:uid="{209A99DC-F89B-4C4D-8977-41AD9456DF11}"/>
+    <hyperlink ref="B22" r:id="rId7" tooltip="Acceptance" display="https://en.wikipedia.org/wiki/Acceptance" xr:uid="{0ABD2824-DC0B-E646-80C5-7AF8DBB18E4F}"/>
+    <hyperlink ref="C22" r:id="rId8" tooltip="Boredom" display="https://en.wikipedia.org/wiki/Boredom" xr:uid="{AB72FB52-4740-404A-8115-826BEC9277C9}"/>
+    <hyperlink ref="D22" r:id="rId9" tooltip="Trust (emotion)" display="https://en.wikipedia.org/wiki/Trust_(emotion)" xr:uid="{21B378F4-FC8C-E24F-8A72-0D9609647600}"/>
+    <hyperlink ref="E22" r:id="rId10" tooltip="Disgust" display="https://en.wikipedia.org/wiki/Disgust" xr:uid="{8CE2CCB8-4615-3F4D-AB32-F75751E9E39B}"/>
+    <hyperlink ref="F22" r:id="rId11" tooltip="Admiration" display="https://en.wikipedia.org/wiki/Admiration" xr:uid="{878055AA-C4B4-1346-B459-EEC8E67D5204}"/>
+    <hyperlink ref="G22" r:id="rId12" tooltip="wiktionary:loathing" display="https://en.wiktionary.org/wiki/loathing" xr:uid="{EEA4FE0C-BAB6-D74C-89E2-C9515AD3B9EA}"/>
+    <hyperlink ref="B23" r:id="rId13" tooltip="wiktionary:apprehension" display="https://en.wiktionary.org/wiki/apprehension" xr:uid="{1AA4E02C-6079-E949-AD39-8D8A95E08E77}"/>
+    <hyperlink ref="C23" r:id="rId14" tooltip="Annoyance" display="https://en.wikipedia.org/wiki/Annoyance" xr:uid="{28446C79-23DB-794D-97B6-C6A9CE59E97E}"/>
+    <hyperlink ref="D23" r:id="rId15" tooltip="Fear" display="https://en.wikipedia.org/wiki/Fear" xr:uid="{9E3581B4-A320-9C49-86A0-2C372F3306C2}"/>
+    <hyperlink ref="E23" r:id="rId16" tooltip="Anger" display="https://en.wikipedia.org/wiki/Anger" xr:uid="{03661298-9532-894D-A84F-D878ADDE870B}"/>
+    <hyperlink ref="F23" r:id="rId17" tooltip="wikt:terror" display="https://en.wiktionary.org/wiki/terror" xr:uid="{36D60975-96B1-4D4A-A5D3-C9B2958D3E9C}"/>
+    <hyperlink ref="G23" r:id="rId18" tooltip="Rage (emotion)" display="https://en.wikipedia.org/wiki/Rage_(emotion)" xr:uid="{3CA65550-52AB-8D43-AD3F-898CF8522102}"/>
+    <hyperlink ref="B24" r:id="rId19" tooltip="Distraction" display="https://en.wikipedia.org/wiki/Distraction" xr:uid="{5CDC740A-8F99-EC4E-A7D8-48C08A614618}"/>
+    <hyperlink ref="C24" r:id="rId20" tooltip="Interest (emotion)" display="https://en.wikipedia.org/wiki/Interest_(emotion)" xr:uid="{1E142E4E-279E-D643-823D-F2B79D0C5EE5}"/>
+    <hyperlink ref="D24" r:id="rId21" tooltip="Surprise (emotion)" display="https://en.wikipedia.org/wiki/Surprise_(emotion)" xr:uid="{0EDD7383-0448-C549-A88F-BC9A8C3C0C78}"/>
+    <hyperlink ref="E24" r:id="rId22" tooltip="Anticipation (emotion)" display="https://en.wikipedia.org/wiki/Anticipation_(emotion)" xr:uid="{EBA9C045-470E-4943-B833-AF00B9B88979}"/>
+    <hyperlink ref="F24" r:id="rId23" tooltip="wiktionary:amazement" display="https://en.wiktionary.org/wiki/amazement" xr:uid="{A6227A5A-7CB6-954D-AC05-E61ADC87D3CA}"/>
+    <hyperlink ref="G24" r:id="rId24" tooltip="Vigilance (psychology)" display="https://en.wikipedia.org/wiki/Vigilance_(psychology)" xr:uid="{E4AD7F4A-FFF2-0C40-96B6-2462E852E794}"/>
+    <hyperlink ref="A7" r:id="rId25" tooltip="Joy" display="https://en.wikipedia.org/wiki/Joy" xr:uid="{80C3EEC9-AB10-1D49-B794-DFAFE6745526}"/>
+    <hyperlink ref="A8" r:id="rId26" tooltip="Trust (emotion)" display="https://en.wikipedia.org/wiki/Trust_(emotion)" xr:uid="{DB141274-DE30-8440-9A72-310A59F5A861}"/>
+    <hyperlink ref="A9" r:id="rId27" tooltip="Fear" display="https://en.wikipedia.org/wiki/Fear" xr:uid="{A1863DFD-19C7-1244-A40C-9E9CA145A761}"/>
+    <hyperlink ref="A10" r:id="rId28" tooltip="Surprise (emotion)" display="https://en.wikipedia.org/wiki/Surprise_(emotion)" xr:uid="{E9C2B66C-C1B2-964D-B687-544A4D1EA2F2}"/>
+    <hyperlink ref="E7" r:id="rId29" tooltip="Sadness" display="https://en.wikipedia.org/wiki/Sadness" xr:uid="{739D1563-C415-E64C-9EBE-0AFDDE90937D}"/>
+    <hyperlink ref="E8" r:id="rId30" tooltip="Disgust" display="https://en.wikipedia.org/wiki/Disgust" xr:uid="{B9794B61-8655-5D4F-A56C-D0CDBBE105C2}"/>
+    <hyperlink ref="E9" r:id="rId31" tooltip="Anger" display="https://en.wikipedia.org/wiki/Anger" xr:uid="{83F477D7-2794-E34A-900A-1DE7B4A85E4C}"/>
+    <hyperlink ref="E10" r:id="rId32" tooltip="Anticipation (emotion)" display="https://en.wikipedia.org/wiki/Anticipation_(emotion)" xr:uid="{2FDD5477-5FF4-8040-A001-DAEE3A7495FC}"/>
+    <hyperlink ref="L24" r:id="rId33" tooltip="Optimism" display="https://en.wikipedia.org/wiki/Optimism" xr:uid="{72A5D348-6DD0-3A40-817D-37BC03EB8D9E}"/>
+    <hyperlink ref="N24" r:id="rId34" tooltip="Disappointment" display="https://en.wikipedia.org/wiki/Disappointment" xr:uid="{605A454B-E323-8E46-815C-4B2DAFC13B2E}"/>
+    <hyperlink ref="L25" r:id="rId35" tooltip="Hope" display="https://en.wikipedia.org/wiki/Hope" xr:uid="{3ADFC716-A513-294E-B825-9A19ECCF1B7A}"/>
+    <hyperlink ref="N25" r:id="rId36" tooltip="wiktionary:unbelief" display="https://en.wiktionary.org/wiki/unbelief" xr:uid="{3F6C0E5D-2875-6844-B2F6-391145FA2B73}"/>
+    <hyperlink ref="L26" r:id="rId37" tooltip="Anxiety" display="https://en.wikipedia.org/wiki/Anxiety" xr:uid="{1A15BF40-304A-E44F-8D15-C2B0D4E80B9F}"/>
+    <hyperlink ref="N26" r:id="rId38" tooltip="Outrage (emotion)" display="https://en.wikipedia.org/wiki/Outrage_(emotion)" xr:uid="{C2511579-E4F2-0345-A85B-4B07D19792A4}"/>
+    <hyperlink ref="L27" r:id="rId39" tooltip="Love" display="https://en.wikipedia.org/wiki/Love" xr:uid="{480E32B4-D023-F845-A4C0-325444E10008}"/>
+    <hyperlink ref="N27" r:id="rId40" tooltip="Remorse" display="https://en.wikipedia.org/wiki/Remorse" xr:uid="{0FCE507D-5439-CA47-BDF0-0286119FABA4}"/>
+    <hyperlink ref="L28" r:id="rId41" tooltip="Guilt (emotion)" display="https://en.wikipedia.org/wiki/Guilt_(emotion)" xr:uid="{BA524093-915B-CD4A-8DB7-49F1BE8AF1A2}"/>
+    <hyperlink ref="N28" r:id="rId42" tooltip="Envy" display="https://en.wikipedia.org/wiki/Envy" xr:uid="{EDF6A181-C869-FA46-8C5E-05CD42C4C0C7}"/>
+    <hyperlink ref="L29" r:id="rId43" tooltip="Pleasure" display="https://en.wikipedia.org/wiki/Pleasure" xr:uid="{5FA5BA9C-A4B1-D845-8C30-1BDD19C3E0DB}"/>
+    <hyperlink ref="N29" r:id="rId44" tooltip="Pessimism" display="https://en.wikipedia.org/wiki/Pessimism" xr:uid="{593E7984-9C50-B243-A681-A32E3A30B741}"/>
+    <hyperlink ref="L30" r:id="rId45" tooltip="Deference" display="https://en.wikipedia.org/wiki/Deference" xr:uid="{0905D6A5-AA1A-EF4C-9AF8-41C710B0FD12}"/>
+    <hyperlink ref="N30" r:id="rId46" tooltip="Contempt" display="https://en.wikipedia.org/wiki/Contempt" xr:uid="{EA21C9B3-2684-1A46-811E-22B194C05377}"/>
+    <hyperlink ref="L31" r:id="rId47" tooltip="Curiosity" display="https://en.wikipedia.org/wiki/Curiosity" xr:uid="{10B7AD9D-2B25-D94C-BEE3-0A62B5D35EB3}"/>
+    <hyperlink ref="N31" r:id="rId48" tooltip="Cynicism (contemporary)" display="https://en.wikipedia.org/wiki/Cynicism_(contemporary)" xr:uid="{8E5DAC56-C59F-0547-BA84-AEAF71A46E94}"/>
+    <hyperlink ref="L32" r:id="rId49" tooltip="Sentimentality" display="https://en.wikipedia.org/wiki/Sentimentality" xr:uid="{0C5A4D23-0B91-7641-900B-DA03F60DAC93}"/>
+    <hyperlink ref="N32" r:id="rId50" tooltip="wikt:morbidness" display="https://en.wiktionary.org/wiki/morbidness" xr:uid="{80ECFC15-202B-C240-A41A-E0BF830F78DE}"/>
+    <hyperlink ref="L33" r:id="rId51" tooltip="Awe" display="https://en.wikipedia.org/wiki/Awe" xr:uid="{4B02FA9E-BF9C-2445-8FB4-C468ED00BC95}"/>
+    <hyperlink ref="N33" r:id="rId52" tooltip="Aggressiveness" display="https://en.wikipedia.org/wiki/Aggressiveness" xr:uid="{0C1048B6-D2ED-BB44-9D6F-9DBADF3C8CFC}"/>
+    <hyperlink ref="L34" r:id="rId53" tooltip="Despair" display="https://en.wikipedia.org/wiki/Despair" xr:uid="{388E2E84-4688-8646-B68D-123B246DFF4B}"/>
+    <hyperlink ref="N34" r:id="rId54" tooltip="Pride" display="https://en.wikipedia.org/wiki/Pride" xr:uid="{9E361BC5-08E6-864E-B149-6F1E9D415658}"/>
+    <hyperlink ref="L35" r:id="rId55" tooltip="Shame" display="https://en.wikipedia.org/wiki/Shame" xr:uid="{0FCA90C0-889E-784D-B162-677302B8FFFD}"/>
+    <hyperlink ref="N35" r:id="rId56" tooltip="Expressions of dominance" display="https://en.wikipedia.org/wiki/Expressions_of_dominance" xr:uid="{F46A9616-3B58-BA40-9451-3F68FC635734}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId57"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BFBB7-60F6-452C-B0AF-550517D7976E}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
@@ -21559,7 +25560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4595A50-F7CC-1648-A6E2-9ABCA5773418}">
   <dimension ref="A1:G55"/>
   <sheetViews>
@@ -22434,7 +26435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F092C9E7-5A98-4292-AA5E-3B74BD75A064}">
   <dimension ref="A1:BL16"/>
   <sheetViews>
@@ -25362,12 +29363,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AD382E-564B-4E91-8830-9614C2A3AD34}">
   <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -26311,7 +30312,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="B1:AG3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:AG3">
     <sortCondition ref="B2:AG2"/>
   </sortState>
   <phoneticPr fontId="18"/>
@@ -26320,7 +30321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4CAD1D-53D4-BB4A-8C4F-C94383474693}">
   <dimension ref="A2:K2"/>
   <sheetViews>
@@ -26371,7 +30372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CFA5EB-651A-3140-87A0-CC30F6528799}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
@@ -26589,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUM(B2:AG2)</f>
+        <f t="shared" ref="AH2:AH33" si="0">SUM(B2:AG2)</f>
         <v>0</v>
       </c>
     </row>
@@ -26694,7 +30695,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUM(B3:AG3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -26799,7 +30800,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUM(B4:AG4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -26904,7 +30905,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUM(B5:AG5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -27009,7 +31010,7 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUM(B6:AG6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -27114,7 +31115,7 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUM(B7:AG7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -27219,7 +31220,7 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUM(B8:AG8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -27324,7 +31325,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUM(B9:AG9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -27429,7 +31430,7 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUM(B10:AG10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -27534,7 +31535,7 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUM(B11:AG11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -27639,7 +31640,7 @@
         <v>1</v>
       </c>
       <c r="AH12">
-        <f>SUM(B12:AG12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -27744,7 +31745,7 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <f>SUM(B13:AG13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -27849,7 +31850,7 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <f>SUM(B14:AG14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -27954,7 +31955,7 @@
         <v>1</v>
       </c>
       <c r="AH15">
-        <f>SUM(B15:AG15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -28059,7 +32060,7 @@
         <v>1</v>
       </c>
       <c r="AH16">
-        <f>SUM(B16:AG16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -28164,7 +32165,7 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <f>SUM(B17:AG17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -28269,7 +32270,7 @@
         <v>1</v>
       </c>
       <c r="AH18">
-        <f>SUM(B18:AG18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -28374,7 +32375,7 @@
         <v>1</v>
       </c>
       <c r="AH19">
-        <f>SUM(B19:AG19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -28479,7 +32480,7 @@
         <v>1</v>
       </c>
       <c r="AH20">
-        <f>SUM(B20:AG20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -28584,7 +32585,7 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <f>SUM(B21:AG21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -28689,7 +32690,7 @@
         <v>1</v>
       </c>
       <c r="AH22">
-        <f>SUM(B22:AG22)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -28794,7 +32795,7 @@
         <v>1</v>
       </c>
       <c r="AH23">
-        <f>SUM(B23:AG23)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -28899,7 +32900,7 @@
         <v>1</v>
       </c>
       <c r="AH24">
-        <f>SUM(B24:AG24)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -29004,7 +33005,7 @@
         <v>1</v>
       </c>
       <c r="AH25">
-        <f>SUM(B25:AG25)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -29109,7 +33110,7 @@
         <v>1</v>
       </c>
       <c r="AH26">
-        <f>SUM(B26:AG26)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -29214,7 +33215,7 @@
         <v>1</v>
       </c>
       <c r="AH27">
-        <f>SUM(B27:AG27)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -29319,7 +33320,7 @@
         <v>1</v>
       </c>
       <c r="AH28">
-        <f>SUM(B28:AG28)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -29424,7 +33425,7 @@
         <v>1</v>
       </c>
       <c r="AH29">
-        <f>SUM(B29:AG29)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -29529,7 +33530,7 @@
         <v>1</v>
       </c>
       <c r="AH30">
-        <f>SUM(B30:AG30)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -29634,7 +33635,7 @@
         <v>1</v>
       </c>
       <c r="AH31">
-        <f>SUM(B31:AG31)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -29739,7 +33740,7 @@
         <v>1</v>
       </c>
       <c r="AH32">
-        <f>SUM(B32:AG32)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -29844,142 +33845,142 @@
         <v>1</v>
       </c>
       <c r="AH33">
-        <f>SUM(B33:AG33)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:34">
       <c r="B34">
-        <f>SUM(B2:B33)</f>
+        <f t="shared" ref="B34:AG34" si="1">SUM(B2:B33)</f>
         <v>0</v>
       </c>
       <c r="C34">
-        <f>SUM(C2:C33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>SUM(D2:D33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>SUM(E2:E33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>SUM(F2:F33)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G34">
-        <f>SUM(G2:G33)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H34">
-        <f>SUM(H2:H33)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I34">
-        <f>SUM(I2:I33)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J34">
-        <f>SUM(J2:J33)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K34">
-        <f>SUM(K2:K33)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L34">
-        <f>SUM(L2:L33)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M34" s="14">
-        <f>SUM(M2:M33)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N34">
-        <f>SUM(N2:N33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="O34">
-        <f>SUM(O2:O33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="P34">
-        <f>SUM(P2:P33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="Q34">
-        <f>SUM(Q2:Q33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="R34">
-        <f>SUM(R2:R33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S34" s="14">
-        <f>SUM(S2:S33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="T34" s="14">
-        <f>SUM(T2:T33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="U34">
-        <f>SUM(U2:U33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="V34">
-        <f>SUM(V2:V33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="W34">
-        <f>SUM(W2:W33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="X34">
-        <f>SUM(X2:X33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="Y34">
-        <f>SUM(Y2:Y33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="Z34" s="14">
-        <f>SUM(Z2:Z33)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AA34" s="14">
-        <f>SUM(AA2:AA33)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AB34" s="14">
-        <f>SUM(AB2:AB33)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AC34">
-        <f>SUM(AC2:AC33)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AD34" s="14">
-        <f>SUM(AD2:AD33)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AE34" s="14">
-        <f>SUM(AE2:AE33)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AF34" s="14">
-        <f>SUM(AF2:AF33)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AG34" s="14">
-        <f>SUM(AG2:AG33)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="B1:AG34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:AG34">
     <sortCondition ref="B34:AG34"/>
   </sortState>
   <phoneticPr fontId="18"/>
@@ -29987,7 +33988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C279E55-0B46-44D9-8555-02B98A8961E0}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -30720,1175 +34721,4 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA00BD6-2105-45E4-9A24-D78A46701885}">
-  <dimension ref="A1:K33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>27</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
-      </c>
-      <c r="H6">
-        <v>31</v>
-      </c>
-      <c r="I6">
-        <v>29</v>
-      </c>
-      <c r="J6">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>31</v>
-      </c>
-      <c r="J7">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>26</v>
-      </c>
-      <c r="I8">
-        <v>17</v>
-      </c>
-      <c r="J8">
-        <v>14</v>
-      </c>
-      <c r="K8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>21</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
-      <c r="I12">
-        <v>23</v>
-      </c>
-      <c r="J12">
-        <v>13</v>
-      </c>
-      <c r="K12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>32</v>
-      </c>
-      <c r="E16">
-        <v>23</v>
-      </c>
-      <c r="F16">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>19</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <v>29</v>
-      </c>
-      <c r="K16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>18</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="I18">
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <v>16</v>
-      </c>
-      <c r="K18">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>26</v>
-      </c>
-      <c r="F19">
-        <v>19</v>
-      </c>
-      <c r="G19">
-        <v>12</v>
-      </c>
-      <c r="H19">
-        <v>22</v>
-      </c>
-      <c r="I19">
-        <v>28</v>
-      </c>
-      <c r="J19">
-        <v>30</v>
-      </c>
-      <c r="K19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <v>32</v>
-      </c>
-      <c r="D20">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>32</v>
-      </c>
-      <c r="F20">
-        <v>32</v>
-      </c>
-      <c r="G20">
-        <v>32</v>
-      </c>
-      <c r="H20">
-        <v>30</v>
-      </c>
-      <c r="I20">
-        <v>32</v>
-      </c>
-      <c r="J20">
-        <v>32</v>
-      </c>
-      <c r="K20">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>26</v>
-      </c>
-      <c r="D21">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>29</v>
-      </c>
-      <c r="F21">
-        <v>30</v>
-      </c>
-      <c r="G21">
-        <v>28</v>
-      </c>
-      <c r="H21">
-        <v>21</v>
-      </c>
-      <c r="I21">
-        <v>27</v>
-      </c>
-      <c r="J21">
-        <v>31</v>
-      </c>
-      <c r="K21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>31</v>
-      </c>
-      <c r="D22">
-        <v>23</v>
-      </c>
-      <c r="E22">
-        <v>25</v>
-      </c>
-      <c r="F22">
-        <v>28</v>
-      </c>
-      <c r="G22">
-        <v>31</v>
-      </c>
-      <c r="H22">
-        <v>13</v>
-      </c>
-      <c r="I22">
-        <v>22</v>
-      </c>
-      <c r="J22">
-        <v>20</v>
-      </c>
-      <c r="K22">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>30</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>29</v>
-      </c>
-      <c r="E23">
-        <v>31</v>
-      </c>
-      <c r="F23">
-        <v>25</v>
-      </c>
-      <c r="G23">
-        <v>24</v>
-      </c>
-      <c r="H23">
-        <v>27</v>
-      </c>
-      <c r="I23">
-        <v>18</v>
-      </c>
-      <c r="J23">
-        <v>21</v>
-      </c>
-      <c r="K23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24">
-        <v>26</v>
-      </c>
-      <c r="G24">
-        <v>30</v>
-      </c>
-      <c r="H24">
-        <v>25</v>
-      </c>
-      <c r="I24">
-        <v>30</v>
-      </c>
-      <c r="J24">
-        <v>22</v>
-      </c>
-      <c r="K24">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>31</v>
-      </c>
-      <c r="G25">
-        <v>16</v>
-      </c>
-      <c r="H25">
-        <v>14</v>
-      </c>
-      <c r="I25">
-        <v>20</v>
-      </c>
-      <c r="J25">
-        <v>12</v>
-      </c>
-      <c r="K25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>18</v>
-      </c>
-      <c r="E26">
-        <v>27</v>
-      </c>
-      <c r="F26">
-        <v>29</v>
-      </c>
-      <c r="G26">
-        <v>29</v>
-      </c>
-      <c r="H26">
-        <v>32</v>
-      </c>
-      <c r="I26">
-        <v>26</v>
-      </c>
-      <c r="J26">
-        <v>25</v>
-      </c>
-      <c r="K26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-      <c r="D27">
-        <v>17</v>
-      </c>
-      <c r="E27">
-        <v>17</v>
-      </c>
-      <c r="F27">
-        <v>27</v>
-      </c>
-      <c r="G27">
-        <v>27</v>
-      </c>
-      <c r="H27">
-        <v>29</v>
-      </c>
-      <c r="I27">
-        <v>16</v>
-      </c>
-      <c r="J27">
-        <v>24</v>
-      </c>
-      <c r="K27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28">
-        <v>16</v>
-      </c>
-      <c r="C28">
-        <v>22</v>
-      </c>
-      <c r="D28">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>18</v>
-      </c>
-      <c r="F28">
-        <v>24</v>
-      </c>
-      <c r="G28">
-        <v>26</v>
-      </c>
-      <c r="H28">
-        <v>20</v>
-      </c>
-      <c r="I28">
-        <v>19</v>
-      </c>
-      <c r="J28">
-        <v>19</v>
-      </c>
-      <c r="K28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>12</v>
-      </c>
-      <c r="F29">
-        <v>16</v>
-      </c>
-      <c r="G29">
-        <v>17</v>
-      </c>
-      <c r="H29">
-        <v>23</v>
-      </c>
-      <c r="I29">
-        <v>13</v>
-      </c>
-      <c r="J29">
-        <v>18</v>
-      </c>
-      <c r="K29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>14</v>
-      </c>
-      <c r="C30">
-        <v>13</v>
-      </c>
-      <c r="D30">
-        <v>19</v>
-      </c>
-      <c r="E30">
-        <v>21</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30">
-        <v>15</v>
-      </c>
-      <c r="H30">
-        <v>18</v>
-      </c>
-      <c r="I30">
-        <v>14</v>
-      </c>
-      <c r="J30">
-        <v>26</v>
-      </c>
-      <c r="K30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>28</v>
-      </c>
-      <c r="F31">
-        <v>13</v>
-      </c>
-      <c r="G31">
-        <v>13</v>
-      </c>
-      <c r="H31">
-        <v>28</v>
-      </c>
-      <c r="I31">
-        <v>21</v>
-      </c>
-      <c r="J31">
-        <v>17</v>
-      </c>
-      <c r="K31">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>11</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="I32">
-        <v>11</v>
-      </c>
-      <c r="J32">
-        <v>11</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33">
-        <v>7</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>6</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>